--- a/2025/Conferences/ULTRASONICS2025/Project/NewDocs/SMART budget table_TSNUK.xlsx
+++ b/2025/Conferences/ULTRASONICS2025/Project/NewDocs/SMART budget table_TSNUK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samples\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9A87C2CA-7622-4C14-A079-02B0AEC1BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E9A26DA9-3B0E-4076-AD2D-9D296B101E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDGET TABLE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="151" uniqueCount="103">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="77" uniqueCount="51">
   <si>
     <t>ESTIMATED COSTS PER WP</t>
   </si>
@@ -141,93 +141,12 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>NOVA</t>
-  </si>
-  <si>
-    <t>web boot camps</t>
-  </si>
-  <si>
-    <t>Dr. Vida Adquisition</t>
-  </si>
-  <si>
-    <t>International conferences</t>
-  </si>
-  <si>
-    <t>A. A. boot camps</t>
-  </si>
-  <si>
-    <t>Project meetings</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>team travelers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goes to </t>
-  </si>
-  <si>
-    <t>Cost unit (3 days)</t>
-  </si>
-  <si>
-    <t>José Luís Capelo Martinez</t>
-  </si>
-  <si>
-    <t>Carlos Lodeiro</t>
-  </si>
-  <si>
-    <t>Hugo Miguel Baptista Carreira dos Santos</t>
-  </si>
-  <si>
-    <t>Javier Fernandez</t>
-  </si>
-  <si>
-    <t>Elisabete de Jesus Oliveira Marques</t>
-  </si>
-  <si>
-    <t>Alice Pereira</t>
-  </si>
-  <si>
-    <t>22955,675 (30%)</t>
-  </si>
-  <si>
-    <t>15318,45 (20%)</t>
-  </si>
-  <si>
-    <t>12760,3 (16,6%)</t>
-  </si>
-  <si>
-    <t>11263,6 (50%)</t>
-  </si>
-  <si>
-    <t>8326,81 (33%)</t>
-  </si>
-  <si>
-    <t>12490,213 (50%)</t>
-  </si>
-  <si>
-    <t>7763,96 (50%)</t>
-  </si>
-  <si>
-    <t>6601,7 (33%)</t>
-  </si>
-  <si>
-    <t>3 travelers*2000*5 years =30 000</t>
-  </si>
-  <si>
-    <t>researcher/project manager?</t>
-  </si>
-  <si>
     <t>Expansion and  Global Impact training activities</t>
   </si>
   <si>
     <t>Foundation and  Implementation training activitis</t>
   </si>
   <si>
-    <t>organizing events by partners outside consortium</t>
-  </si>
-  <si>
     <t>Scientific Research not add training</t>
   </si>
   <si>
@@ -237,228 +156,9 @@
     <t>Project Management training activitiesp attedning projects meetings</t>
   </si>
   <si>
-    <t>11263,6/2 (50%)</t>
-  </si>
-  <si>
-    <t>Auxiliary researcher Hugo Miguel Baptista Carreira dos Santos</t>
-  </si>
-  <si>
-    <t>Auxiliary Researcher Javier Fernandez</t>
-  </si>
-  <si>
-    <t>Auxiliary professor Elisabete de Jesus Oliveira Marques</t>
-  </si>
-  <si>
     <t>Assocaite professor Alice Pereira</t>
   </si>
   <si>
-    <t>Researcher /Project manager</t>
-  </si>
-  <si>
-    <t>Participant No.</t>
-  </si>
-  <si>
-    <t>Participant organisation name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>(Coordinator)</t>
-  </si>
-  <si>
-    <r>
-      <t>NOVA UNIVERSITY OF LISBON-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NOVA</t>
-    </r>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <r>
-      <t>ALMA MATER STUDIORUM - UNIVERSITY OF BOLOGNA-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UNIBO</t>
-    </r>
-  </si>
-  <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <r>
-      <t>THE HEBREW UNIVERSITY OF JERUSALEM-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HUJI</t>
-    </r>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>STAB VIDA INVESTIGAÇÃO E SERVICOS EM</t>
-  </si>
-  <si>
-    <r>
-      <t>CIENCIAS BIOLOGICAS LDA-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>STABV</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NATIONAL AND KAPODISTRIAN UNIVERSITY OF ATHENS-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UOA</t>
-    </r>
-  </si>
-  <si>
-    <t>GREECE</t>
-  </si>
-  <si>
-    <r>
-      <t>EXELIXIS RESEARCH MANAGEMENT AND COMMUNICATION-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EXEL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UNIVERSITY OF CAMPINAS-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UNICAMP</t>
-    </r>
-  </si>
-  <si>
-    <t>BRASIL</t>
-  </si>
-  <si>
-    <r>
-      <t>YAGHMA-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>YAGHMA</t>
-    </r>
-  </si>
-  <si>
-    <t>THE NETHERLANDS</t>
-  </si>
-  <si>
-    <r>
-      <t>UNIVERSITY OF PERNAMBUCO-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UPE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TARAS SHEVCHENKO NATIONAL UNIVERSITY OF KYIVNU-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TSNUK</t>
-    </r>
-  </si>
-  <si>
-    <t>UKRAINE</t>
-  </si>
-  <si>
-    <r>
-      <t>UNIVERSITY OF HUELVA-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UHU</t>
-    </r>
-  </si>
-  <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
     <t>TSNUK</t>
   </si>
   <si>
@@ -466,6 +166,18 @@
   </si>
   <si>
     <t>Professor Serhiy Kondratenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor </t>
+  </si>
+  <si>
+    <t>Auxiliary Researcher Dr.Pavlo Lishchuk</t>
+  </si>
+  <si>
+    <t>Auxiliary Researcher Dr.Vasyl Kuryliuk</t>
+  </si>
+  <si>
+    <t>Auxiliary Researcher Dr.Viktor Kozachenko</t>
   </si>
 </sst>
 </file>
@@ -477,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,13 +318,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -620,13 +325,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1231,7 +929,7 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,161 +1060,160 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1943,57 +1640,57 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.77734375" customWidth="1"/>
-    <col min="13" max="13" width="49.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="2:25" ht="24.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2024,24 +1721,24 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="2:25" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+    <row r="3" spans="2:25" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3"/>
       <c r="N3" s="2"/>
@@ -2057,65 +1754,75 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="32"/>
     </row>
-    <row r="4" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85" t="s">
+    <row r="4" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="63" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="25">
+        <f>C47</f>
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="25">
+        <f>D47</f>
+        <v>11</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:I4" si="0">E47</f>
+        <v>11</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>40</v>
+      <c r="I4" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J9" si="0">SUM(E4:I4)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="86"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="103" t="s">
+        <f t="shared" ref="J4:J9" si="1">SUM(E4:I4)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="55">
+        <f>I47</f>
         <v>45000</v>
       </c>
-      <c r="F5" s="104">
-        <v>61000</v>
-      </c>
-      <c r="G5" s="104">
-        <v>30000</v>
-      </c>
-      <c r="H5" s="104">
-        <v>24000</v>
-      </c>
-      <c r="I5" s="104">
-        <v>190000</v>
+      <c r="F5" s="55">
+        <f t="shared" ref="F5:I5" si="2">J47</f>
+        <v>55000</v>
+      </c>
+      <c r="G5" s="55">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
+      <c r="H5" s="55">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="I5" s="55">
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="0"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
-      <c r="C6" s="82" t="s">
+        <f t="shared" si="1"/>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="71"/>
+      <c r="C6" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -2127,13 +1834,13 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="86"/>
-      <c r="C7" s="80"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
@@ -2143,13 +1850,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
-      <c r="C8" s="82" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" s="67" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -2161,13 +1868,13 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="87"/>
-      <c r="C9" s="80"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
@@ -2177,35 +1884,31 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="88" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="11">
-        <v>25000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11">
-        <v>25000</v>
-      </c>
-      <c r="J10" s="94">
+      <c r="I10" s="11"/>
+      <c r="J10" s="79">
         <f>SUM(E10:I12)</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="24" t="s">
         <v>12</v>
       </c>
@@ -2214,11 +1917,11 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
@@ -2227,13 +1930,13 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="81"/>
-    </row>
-    <row r="13" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="97" t="s">
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="61" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -2243,18 +1946,18 @@
         <v>15000</v>
       </c>
       <c r="F13" s="15">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15">
         <v>15000</v>
       </c>
       <c r="I13" s="15">
-        <v>25000</v>
-      </c>
-      <c r="J13" s="75">
+        <v>15000</v>
+      </c>
+      <c r="J13" s="59">
         <f>SUM(E13:I14)</f>
-        <v>129000</v>
+        <v>100000</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
@@ -2269,26 +1972,26 @@
       <c r="X13" s="34"/>
       <c r="Y13" s="33"/>
     </row>
-    <row r="14" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="98"/>
-      <c r="C14" s="78"/>
+    <row r="14" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="83"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="15">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="15">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="76"/>
-    </row>
-    <row r="15" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="77" t="s">
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="83"/>
+      <c r="C15" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2299,14 +2002,14 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="69">
+      <c r="J15" s="65">
         <f>SUM(E15:I16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98"/>
-      <c r="C16" s="78"/>
+    <row r="16" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="83"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="21" t="s">
         <v>12</v>
       </c>
@@ -2315,52 +2018,52 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="100" t="s">
+      <c r="J16" s="66"/>
+    </row>
+    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="83"/>
+      <c r="C17" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="17">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="69">
+      <c r="J17" s="65">
         <f>SUM(E17:I19)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-      <c r="C18" s="101"/>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="17">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="F18" s="17">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="70"/>
-    </row>
-    <row r="19" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
+      <c r="J18" s="99"/>
+    </row>
+    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="84"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2369,13 +2072,13 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="95" t="s">
+      <c r="J19" s="100"/>
+    </row>
+    <row r="20" spans="2:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="23" t="s">
         <v>12</v>
       </c>
@@ -2389,265 +2092,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
+    <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="84"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="30">
         <f>SUM(25%*(E5+E7+E9+E13+E14+E15+E16+E17+E18+E19))</f>
-        <v>29250</v>
+        <v>26250</v>
       </c>
       <c r="F21" s="30">
         <f>SUM(25%*(F5+F7+F9+F13+F14+F15+F16+F17+F18+F19))</f>
-        <v>29500</v>
+        <v>24750</v>
       </c>
       <c r="G21" s="30">
-        <f t="shared" ref="G21:I21" si="1">SUM(25%*(G5+G7+G9+G13+G14+G15+G16+G17+G18+G19))</f>
-        <v>32500</v>
+        <f t="shared" ref="G21:I21" si="3">SUM(25%*(G5+G7+G9+G13+G14+G15+G16+G17+G18+G19))</f>
+        <v>28750</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="1"/>
-        <v>12250</v>
+        <f t="shared" si="3"/>
+        <v>18500</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="1"/>
-        <v>53750</v>
+        <f t="shared" si="3"/>
+        <v>6250</v>
       </c>
       <c r="J21" s="18">
         <f>SUM(E21:I21)</f>
-        <v>157250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="31">
         <f>SUM(E5,E7,E9,E10:E21)</f>
-        <v>171250</v>
+        <v>131250</v>
       </c>
       <c r="F22" s="31">
         <f>SUM(F5,F7,F9,F10:F21)</f>
-        <v>147500</v>
+        <v>123750</v>
       </c>
       <c r="G22" s="31">
-        <f t="shared" ref="G22:I22" si="2">SUM(G5,G7,G9,G10:G21)</f>
-        <v>162500</v>
+        <f t="shared" ref="G22:I22" si="4">SUM(G5,G7,G9,G10:G21)</f>
+        <v>143750</v>
       </c>
       <c r="H22" s="31">
-        <f t="shared" si="2"/>
-        <v>61250</v>
+        <f t="shared" si="4"/>
+        <v>92500</v>
       </c>
       <c r="I22" s="31">
-        <f t="shared" si="2"/>
-        <v>293750</v>
+        <f t="shared" si="4"/>
+        <v>31250</v>
       </c>
       <c r="J22" s="19">
         <f>SUM(E22:I22)</f>
-        <v>836250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D26">
-        <v>2026</v>
-      </c>
-      <c r="E26">
-        <v>2027</v>
-      </c>
-      <c r="F26">
-        <v>2028</v>
-      </c>
-      <c r="G26">
-        <v>2029</v>
-      </c>
-      <c r="H26">
-        <v>2030</v>
-      </c>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="37">
-        <v>30000</v>
-      </c>
-      <c r="M27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>2000</v>
-      </c>
-      <c r="K28" s="37">
-        <v>30000</v>
-      </c>
-      <c r="M28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>2000</v>
-      </c>
-      <c r="K29" s="37">
-        <v>30000</v>
-      </c>
-      <c r="M29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>2000</v>
-      </c>
-      <c r="K30" s="37">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="J31" s="36">
-        <v>750</v>
-      </c>
-      <c r="K31" s="37">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>522500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
       <c r="N35" s="33"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="44" t="s">
         <v>1</v>
@@ -2684,7 +2227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33"/>
       <c r="C37" s="46" t="s">
         <v>26</v>
@@ -2723,15 +2266,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C38" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="33">
         <v>2</v>
@@ -2740,135 +2283,139 @@
         <v>2</v>
       </c>
       <c r="G38" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" s="33">
         <f>SUM(C38:G38)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I38" s="33">
-        <f>3*5000</f>
-        <v>15000</v>
+        <f>5000*C38</f>
+        <v>5000</v>
       </c>
       <c r="J38" s="33">
-        <f>3*5000</f>
-        <v>15000</v>
+        <f t="shared" ref="J38:M38" si="5">5000*D38</f>
+        <v>5000</v>
       </c>
       <c r="K38" s="33">
-        <f>2*5000</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="L38" s="33">
-        <f>2*5000</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="M38" s="33">
-        <f>4*5000</f>
-        <v>20000</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
       <c r="N38" s="33">
         <f>SUM(I38:M38)</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C39" s="33">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33">
         <v>2</v>
       </c>
-      <c r="D39" s="33">
-        <v>1</v>
-      </c>
       <c r="E39" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="33">
         <v>0</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" ref="H39:H43" si="3">SUM(C39:G39)</f>
-        <v>4</v>
+        <f t="shared" ref="H39:H45" si="6">SUM(C39:G39)</f>
+        <v>7</v>
       </c>
       <c r="I39" s="33">
-        <f>2*5000</f>
+        <f t="shared" ref="I39:I44" si="7">5000*C39</f>
+        <v>5000</v>
+      </c>
+      <c r="J39" s="33">
+        <f t="shared" ref="J39:J44" si="8">5000*D39</f>
         <v>10000</v>
       </c>
-      <c r="J39" s="33">
-        <f>1*5000</f>
-        <v>5000</v>
-      </c>
       <c r="K39" s="33">
-        <v>0</v>
+        <f t="shared" ref="K39:K44" si="9">5000*E39</f>
+        <v>10000</v>
       </c>
       <c r="L39" s="33">
-        <f>1*5000</f>
-        <v>5000</v>
+        <f t="shared" ref="L39:L44" si="10">5000*F39</f>
+        <v>10000</v>
       </c>
       <c r="M39" s="33">
+        <f t="shared" ref="M39:M44" si="11">5000*G39</f>
         <v>0</v>
       </c>
       <c r="N39" s="33">
         <f>SUM(I39:M39)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C40" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="33">
         <v>2</v>
       </c>
       <c r="E40" s="33">
+        <v>0</v>
+      </c>
+      <c r="F40" s="33">
         <v>2</v>
       </c>
-      <c r="F40" s="33">
-        <v>0</v>
-      </c>
       <c r="G40" s="33">
         <v>0</v>
       </c>
       <c r="H40" s="33">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="I40" s="33">
-        <f>2*5000</f>
+        <f t="shared" si="7"/>
+        <v>15000</v>
+      </c>
+      <c r="J40" s="33">
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J40" s="33">
-        <f>2*5000</f>
+      <c r="K40" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="33">
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
-      <c r="K40" s="33">
-        <f>2*5000</f>
-        <v>10000</v>
-      </c>
-      <c r="L40" s="33">
-        <v>0</v>
-      </c>
       <c r="M40" s="33">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N40" s="33">
-        <f t="shared" ref="N40:N43" si="4">SUM(I40:M40)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N40:N43" si="12">SUM(I40:M40)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C41" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" s="33">
         <v>2</v>
@@ -2877,39 +2424,43 @@
         <v>2</v>
       </c>
       <c r="F41" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="33">
         <v>0</v>
       </c>
       <c r="H41" s="33">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I41" s="48">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I41" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="33">
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J41" s="48">
+      <c r="K41" s="33">
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="K41" s="33">
-        <v>0</v>
-      </c>
       <c r="L41" s="33">
-        <f>1*5000</f>
+        <f t="shared" si="10"/>
         <v>5000</v>
       </c>
       <c r="M41" s="33">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N41" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C42" s="33">
         <v>0</v>
@@ -2921,39 +2472,43 @@
         <v>2</v>
       </c>
       <c r="F42" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="33">
         <v>0</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I42" s="33">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J42" s="33">
-        <f>1*5000</f>
+        <f t="shared" si="8"/>
         <v>5000</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="33">
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="L42" s="33">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="M42" s="33">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N42" s="33">
         <f>SUM(I42:M42)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="33" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C43" s="33">
         <v>0</v>
@@ -2962,97 +2517,140 @@
         <v>1</v>
       </c>
       <c r="E43" s="33">
+        <v>3</v>
+      </c>
+      <c r="F43" s="33">
+        <v>0</v>
+      </c>
+      <c r="G43" s="33">
+        <v>0</v>
+      </c>
+      <c r="H43" s="33">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I43" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="33">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="K43" s="33">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="L43" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="33">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="33">
         <v>2</v>
       </c>
-      <c r="F43" s="33">
+      <c r="D44" s="33">
         <v>1</v>
       </c>
-      <c r="G43" s="33">
-        <v>0</v>
-      </c>
-      <c r="H43" s="33">
-        <f t="shared" si="3"/>
+      <c r="E44" s="33">
+        <v>0</v>
+      </c>
+      <c r="F44" s="33">
+        <v>1</v>
+      </c>
+      <c r="G44" s="33">
+        <v>0</v>
+      </c>
+      <c r="H44" s="33">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I43" s="33">
-        <v>0</v>
-      </c>
-      <c r="J43" s="33">
-        <f>4*4000</f>
-        <v>16000</v>
-      </c>
-      <c r="K43" s="33">
-        <v>0</v>
-      </c>
-      <c r="L43" s="33">
-        <v>4000</v>
-      </c>
-      <c r="M43" s="33">
-        <v>0</v>
-      </c>
-      <c r="N43" s="33">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="33">
-        <v>0</v>
-      </c>
-      <c r="D44" s="33">
-        <v>0</v>
-      </c>
-      <c r="E44" s="33">
-        <v>0</v>
-      </c>
-      <c r="F44" s="33">
-        <v>0</v>
-      </c>
-      <c r="G44" s="33">
-        <v>36</v>
-      </c>
-      <c r="H44" s="33">
-        <v>36</v>
-      </c>
       <c r="I44" s="33">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>10000</v>
       </c>
       <c r="J44" s="33">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5000</v>
       </c>
       <c r="K44" s="33">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L44" s="33">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="M44" s="33">
-        <v>170000</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="N44" s="33">
         <f>SUM(I44:M44)</f>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="33">
+        <v>2</v>
+      </c>
+      <c r="D45" s="33">
+        <v>1</v>
+      </c>
+      <c r="E45" s="33">
+        <v>0</v>
+      </c>
+      <c r="F45" s="33">
+        <v>1</v>
+      </c>
+      <c r="G45" s="33">
+        <v>0</v>
+      </c>
+      <c r="H45" s="33">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I45" s="33">
+        <f t="shared" ref="I45" si="13">5000*C45</f>
+        <v>10000</v>
+      </c>
+      <c r="J45" s="33">
+        <f t="shared" ref="J45" si="14">5000*D45</f>
+        <v>5000</v>
+      </c>
+      <c r="K45" s="33">
+        <f t="shared" ref="K45" si="15">5000*E45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="33">
+        <f t="shared" ref="L45" si="16">5000*F45</f>
+        <v>5000</v>
+      </c>
+      <c r="M45" s="33">
+        <f t="shared" ref="M45" si="17">5000*G45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="33">
+        <f>SUM(I45:M45)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -3067,398 +2665,180 @@
       <c r="M46" s="33"/>
       <c r="N46" s="33"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="48">
         <f>SUM(C38:C46)</f>
         <v>9</v>
       </c>
-      <c r="D47" s="49">
-        <f t="shared" ref="D47:G47" si="5">SUM(D38:D46)</f>
+      <c r="D47" s="48">
+        <f t="shared" ref="D47:G47" si="18">SUM(D38:D46)</f>
+        <v>11</v>
+      </c>
+      <c r="E47" s="48">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="F47" s="48">
+        <f>SUM(F38:F46)</f>
         <v>10</v>
       </c>
-      <c r="E47" s="49">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="F47" s="49">
-        <f>SUM(F38:F46)</f>
-        <v>4</v>
-      </c>
-      <c r="G47" s="49">
-        <f t="shared" si="5"/>
-        <v>40</v>
+      <c r="G47" s="48">
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="H47" s="33">
         <f>SUM(C47:G47)</f>
-        <v>73</v>
-      </c>
-      <c r="I47" s="49">
+        <v>43</v>
+      </c>
+      <c r="I47" s="48">
         <f>SUM(I38:I46)</f>
         <v>45000</v>
       </c>
-      <c r="J47" s="49">
-        <f t="shared" ref="J47:N47" si="6">SUM(J38:J46)</f>
-        <v>61000</v>
-      </c>
-      <c r="K47" s="49">
-        <f t="shared" si="6"/>
-        <v>30000</v>
-      </c>
-      <c r="L47" s="49">
+      <c r="J47" s="48">
+        <f t="shared" ref="J47:N47" si="19">SUM(J38:J46)</f>
+        <v>55000</v>
+      </c>
+      <c r="K47" s="48">
+        <f t="shared" si="19"/>
+        <v>55000</v>
+      </c>
+      <c r="L47" s="48">
         <f>SUM(L38:L46)</f>
-        <v>24000</v>
-      </c>
-      <c r="M47" s="49">
-        <f t="shared" si="6"/>
-        <v>190000</v>
+        <v>50000</v>
+      </c>
+      <c r="M47" s="48">
+        <f t="shared" si="19"/>
+        <v>10000</v>
       </c>
       <c r="N47" s="33">
-        <f t="shared" si="6"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L53" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="M53" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="N53" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="50">
-        <v>1</v>
-      </c>
-      <c r="M54" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="N54" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="E55" s="38">
-        <v>76592.250075000018</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L55" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="M55" s="53"/>
-      <c r="N55" s="56"/>
-    </row>
-    <row r="56" spans="3:14" ht="27" x14ac:dyDescent="0.3">
-      <c r="C56" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="41">
-        <v>0.05</v>
-      </c>
-      <c r="E56" s="39">
-        <v>22527.132375000001</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" t="s">
-        <v>70</v>
-      </c>
-      <c r="L56" s="50">
-        <v>2</v>
-      </c>
-      <c r="M56" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="N56" s="51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="C57" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="41">
-        <v>0.08</v>
-      </c>
-      <c r="E57" s="39">
-        <v>24980.429099999998</v>
-      </c>
-      <c r="F57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="50">
-        <v>3</v>
-      </c>
-      <c r="M57" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="N57" s="51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C58" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="41">
-        <v>0.08</v>
-      </c>
-      <c r="E58" s="38">
-        <v>24980.429099999998</v>
-      </c>
-      <c r="G58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" t="s">
-        <v>59</v>
-      </c>
-      <c r="L58" s="57">
-        <v>4</v>
-      </c>
-      <c r="M58" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="N58" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="C59" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="41">
-        <v>0.05</v>
-      </c>
-      <c r="E59" s="38">
-        <v>15527.919</v>
-      </c>
-      <c r="F59" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" t="s">
-        <v>60</v>
-      </c>
-      <c r="L59" s="57"/>
-      <c r="M59" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="N59" s="56"/>
-    </row>
-    <row r="60" spans="3:14" ht="27" x14ac:dyDescent="0.3">
-      <c r="C60" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="41">
-        <v>0.05</v>
-      </c>
-      <c r="E60" s="39">
-        <v>19805.288250000001</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" t="s">
-        <v>61</v>
-      </c>
-      <c r="L60" s="50">
-        <v>5</v>
-      </c>
-      <c r="M60" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="N60" s="51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" ht="27" x14ac:dyDescent="0.3">
-      <c r="F61">
-        <v>49274.25</v>
-      </c>
-      <c r="G61">
-        <v>25250.51</v>
-      </c>
-      <c r="H61">
-        <v>51442.623</v>
-      </c>
-      <c r="I61">
-        <v>27125.96</v>
-      </c>
-      <c r="J61">
-        <v>31282.5</v>
-      </c>
-      <c r="L61" s="50">
-        <v>6</v>
-      </c>
-      <c r="M61" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="N61" s="51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="E62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="43">
-        <v>41714.9</v>
-      </c>
-      <c r="G62" s="43">
-        <v>41714.9</v>
-      </c>
-      <c r="H62" s="43">
-        <v>41714.9</v>
-      </c>
-      <c r="I62" s="43">
-        <v>41714.9</v>
-      </c>
-      <c r="J62" s="43">
-        <v>41714.9</v>
-      </c>
-      <c r="L62" s="50">
-        <v>7</v>
-      </c>
-      <c r="M62" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F63">
-        <f>SUM(F61:F62)</f>
-        <v>90989.15</v>
-      </c>
-      <c r="G63">
-        <f t="shared" ref="G63:J63" si="7">SUM(G61:G62)</f>
-        <v>66965.41</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="7"/>
-        <v>93157.523000000001</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="7"/>
-        <v>68840.86</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="7"/>
-        <v>72997.399999999994</v>
-      </c>
-      <c r="L63" s="50">
-        <v>8</v>
-      </c>
-      <c r="M63" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="N63" s="51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="L64" s="50">
-        <v>9</v>
-      </c>
-      <c r="M64" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="N64" s="51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="12:14" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="L65" s="50">
-        <v>10</v>
-      </c>
-      <c r="M65" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="N65" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L66" s="50">
-        <v>11</v>
-      </c>
-      <c r="M66" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="N66" s="51" t="s">
-        <v>99</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+    </row>
+    <row r="54" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="102"/>
+    </row>
+    <row r="55" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="102"/>
+    </row>
+    <row r="56" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="39"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="50"/>
+    </row>
+    <row r="57" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="39"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="50"/>
+    </row>
+    <row r="58" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="38"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="102"/>
+    </row>
+    <row r="59" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="38"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="102"/>
+    </row>
+    <row r="60" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="39"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="50"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L61" s="49"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="50"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="50"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L63" s="49"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="50"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="49"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="50"/>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L65" s="49"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="51"/>
+    </row>
+    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L66" s="49"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="C15:C16"/>
@@ -3474,17 +2854,6 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="N58:N59"/>
   </mergeCells>
   <conditionalFormatting sqref="C55:D60">
     <cfRule type="containsBlanks" dxfId="1" priority="3">

--- a/2025/Conferences/ULTRASONICS2025/Project/NewDocs/SMART budget table_TSNUK.xlsx
+++ b/2025/Conferences/ULTRASONICS2025/Project/NewDocs/SMART budget table_TSNUK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samples\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E9A26DA9-3B0E-4076-AD2D-9D296B101E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75B605E1-6869-476A-B07A-065CB5FBA52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDGET TABLE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="77" uniqueCount="51">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="77" uniqueCount="52">
   <si>
     <t>ESTIMATED COSTS PER WP</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Project Management training activitiesp attedning projects meetings</t>
   </si>
   <si>
-    <t>Assocaite professor Alice Pereira</t>
-  </si>
-  <si>
     <t>TSNUK</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Professor Serhiy Kondratenko</t>
   </si>
   <si>
-    <t xml:space="preserve">Professor </t>
-  </si>
-  <si>
     <t>Auxiliary Researcher Dr.Pavlo Lishchuk</t>
   </si>
   <si>
@@ -178,6 +172,15 @@
   </si>
   <si>
     <t>Auxiliary Researcher Dr.Viktor Kozachenko</t>
+  </si>
+  <si>
+    <t>Professor Oleksandr Zholos</t>
+  </si>
+  <si>
+    <t>Professor Victor Martynyuk</t>
+  </si>
+  <si>
+    <t>Assocaite professor Dr.Nataliya  Nurishchenko</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,6 +1077,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,9 +1151,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,50 +1217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1640,57 +1646,57 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="24.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="96" t="s">
+    <row r="1" spans="2:25" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1721,10 +1727,10 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="2:25" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+    <row r="3" spans="2:25" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1754,11 +1760,11 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="32"/>
     </row>
-    <row r="4" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+    <row r="4" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="80" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1766,19 +1772,19 @@
       </c>
       <c r="E4" s="25">
         <f>C47</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4" s="25">
         <f>D47</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" s="25">
         <f t="shared" ref="G4:I4" si="0">E47</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I4" s="25">
         <f t="shared" si="0"/>
@@ -1786,43 +1792,43 @@
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J9" si="1">SUM(E4:I4)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="64"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="87"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="55">
         <f>I47</f>
-        <v>45000</v>
+        <v>43000</v>
       </c>
       <c r="F5" s="55">
         <f t="shared" ref="F5:I5" si="2">J47</f>
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="G5" s="55">
         <f t="shared" si="2"/>
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="H5" s="55">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="I5" s="55">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>215000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
-      <c r="C6" s="67" t="s">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="87"/>
+      <c r="C6" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -1838,9 +1844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="87"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
@@ -1854,9 +1860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
-      <c r="C8" s="67" t="s">
+    <row r="8" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
+      <c r="C8" s="83" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -1872,9 +1878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
-      <c r="C9" s="64"/>
+    <row r="9" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="88"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
@@ -1888,11 +1894,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+    <row r="10" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
@@ -1901,14 +1907,14 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="79">
+      <c r="J10" s="95">
         <f>SUM(E10:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
+    <row r="11" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="24" t="s">
         <v>12</v>
       </c>
@@ -1917,11 +1923,11 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
+      <c r="J11" s="95"/>
+    </row>
+    <row r="12" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
@@ -1930,13 +1936,13 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82" t="s">
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1955,7 +1961,7 @@
       <c r="I13" s="15">
         <v>15000</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="76">
         <f>SUM(E13:I14)</f>
         <v>100000</v>
       </c>
@@ -1972,9 +1978,9 @@
       <c r="X13" s="34"/>
       <c r="Y13" s="33"/>
     </row>
-    <row r="14" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="62"/>
+    <row r="14" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="99"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1987,11 +1993,11 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="83"/>
-      <c r="C15" s="61" t="s">
+      <c r="J14" s="77"/>
+    </row>
+    <row r="15" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="99"/>
+      <c r="C15" s="78" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2002,14 +2008,14 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="65">
+      <c r="J15" s="70">
         <f>SUM(E15:I16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="83"/>
-      <c r="C16" s="62"/>
+    <row r="16" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="99"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="21" t="s">
         <v>12</v>
       </c>
@@ -2018,33 +2024,33 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="85" t="s">
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="99"/>
+      <c r="C17" s="101" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="17">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="65">
+      <c r="J17" s="70">
         <f>SUM(E17:I19)</f>
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
-      <c r="C18" s="86"/>
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="99"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2052,18 +2058,18 @@
         <v>16000</v>
       </c>
       <c r="F18" s="17">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="99"/>
-    </row>
-    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="84"/>
-      <c r="C19" s="87"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" spans="2:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="100"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2072,13 +2078,13 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="100"/>
-    </row>
-    <row r="20" spans="2:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80" t="s">
+      <c r="J19" s="72"/>
+    </row>
+    <row r="20" spans="2:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="81"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="23" t="s">
         <v>12</v>
       </c>
@@ -2092,105 +2098,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+    <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="30">
         <f>SUM(25%*(E5+E7+E9+E13+E14+E15+E16+E17+E18+E19))</f>
-        <v>26250</v>
+        <v>25500</v>
       </c>
       <c r="F21" s="30">
         <f>SUM(25%*(F5+F7+F9+F13+F14+F15+F16+F17+F18+F19))</f>
-        <v>24750</v>
+        <v>23250</v>
       </c>
       <c r="G21" s="30">
         <f t="shared" ref="G21:I21" si="3">SUM(25%*(G5+G7+G9+G13+G14+G15+G16+G17+G18+G19))</f>
-        <v>28750</v>
+        <v>28000</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="3"/>
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="J21" s="18">
         <f>SUM(E21:I21)</f>
-        <v>104500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56" t="s">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="31">
         <f>SUM(E5,E7,E9,E10:E21)</f>
-        <v>131250</v>
+        <v>127500</v>
       </c>
       <c r="F22" s="31">
         <f>SUM(F5,F7,F9,F10:F21)</f>
-        <v>123750</v>
+        <v>116250</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" ref="G22:I22" si="4">SUM(G5,G7,G9,G10:G21)</f>
-        <v>143750</v>
+        <v>140000</v>
       </c>
       <c r="H22" s="31">
         <f t="shared" si="4"/>
-        <v>92500</v>
+        <v>87500</v>
       </c>
       <c r="I22" s="31">
         <f t="shared" si="4"/>
-        <v>31250</v>
+        <v>28750</v>
       </c>
       <c r="J22" s="19">
         <f>SUM(E22:I22)</f>
-        <v>522500</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="35"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K28" s="37"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J31" s="36"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="33"/>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="101" t="s">
+      <c r="I35" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
       <c r="N35" s="33"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="33"/>
       <c r="C36" s="44" t="s">
         <v>1</v>
@@ -2227,7 +2233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="33"/>
       <c r="C37" s="46" t="s">
         <v>26</v>
@@ -2266,18 +2272,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="33">
         <v>1</v>
       </c>
       <c r="D38" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="33">
         <v>2</v>
@@ -2287,141 +2293,141 @@
       </c>
       <c r="H38" s="33">
         <f>SUM(C38:G38)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I38" s="33">
-        <f>5000*C38</f>
-        <v>5000</v>
+        <f>4000*C38</f>
+        <v>4000</v>
       </c>
       <c r="J38" s="33">
-        <f t="shared" ref="J38:M38" si="5">5000*D38</f>
-        <v>5000</v>
+        <f t="shared" ref="J38:M38" si="5">4000*D38</f>
+        <v>8000</v>
       </c>
       <c r="K38" s="33">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L38" s="33">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M38" s="33">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N38" s="33">
         <f>SUM(I38:M38)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="33">
         <v>1</v>
       </c>
       <c r="D39" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="33">
         <v>0</v>
       </c>
       <c r="H39" s="33">
         <f t="shared" ref="H39:H45" si="6">SUM(C39:G39)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I39" s="33">
-        <f t="shared" ref="I39:I44" si="7">5000*C39</f>
-        <v>5000</v>
+        <f>3000*C39</f>
+        <v>3000</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" ref="J39:J44" si="8">5000*D39</f>
-        <v>10000</v>
+        <f t="shared" ref="J39:M39" si="7">3000*D39</f>
+        <v>9000</v>
       </c>
       <c r="K39" s="33">
-        <f t="shared" ref="K39:K44" si="9">5000*E39</f>
-        <v>10000</v>
+        <f t="shared" si="7"/>
+        <v>9000</v>
       </c>
       <c r="L39" s="33">
-        <f t="shared" ref="L39:L44" si="10">5000*F39</f>
-        <v>10000</v>
+        <f t="shared" si="7"/>
+        <v>12000</v>
       </c>
       <c r="M39" s="33">
-        <f t="shared" ref="M39:M44" si="11">5000*G39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N39" s="33">
         <f>SUM(I39:M39)</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" s="33">
+        <v>4</v>
+      </c>
+      <c r="D40" s="33">
         <v>3</v>
       </c>
-      <c r="D40" s="33">
-        <v>2</v>
-      </c>
       <c r="E40" s="33">
         <v>0</v>
       </c>
       <c r="F40" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="33">
         <v>0</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I40" s="33">
-        <f t="shared" si="7"/>
-        <v>15000</v>
+        <f t="shared" ref="I40:I45" si="8">3000*C40</f>
+        <v>12000</v>
       </c>
       <c r="J40" s="33">
-        <f t="shared" si="8"/>
-        <v>10000</v>
+        <f t="shared" ref="J40:J45" si="9">3000*D40</f>
+        <v>9000</v>
       </c>
       <c r="K40" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K40:K45" si="10">3000*E40</f>
         <v>0</v>
       </c>
       <c r="L40" s="33">
-        <f t="shared" si="10"/>
-        <v>10000</v>
+        <f t="shared" ref="L40:L45" si="11">3000*F40</f>
+        <v>12000</v>
       </c>
       <c r="M40" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M40:M45" si="12">3000*G40</f>
         <v>0</v>
       </c>
       <c r="N40" s="33">
-        <f t="shared" ref="N40:N43" si="12">SUM(I40:M40)</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N40:N43" si="13">SUM(I40:M40)</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41" s="33">
         <v>2</v>
       </c>
       <c r="E41" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="33">
         <v>1</v>
@@ -2431,93 +2437,93 @@
       </c>
       <c r="H41" s="33">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I41" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>12000</v>
       </c>
       <c r="J41" s="33">
-        <f t="shared" si="8"/>
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>6000</v>
       </c>
       <c r="K41" s="33">
-        <f t="shared" si="9"/>
-        <v>10000</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L41" s="33">
-        <f t="shared" si="10"/>
-        <v>5000</v>
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
       <c r="M41" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N41" s="33">
-        <f t="shared" si="12"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
-        <v>48</v>
+        <f t="shared" si="13"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="104" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="33">
         <v>0</v>
       </c>
       <c r="D42" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="33">
+        <v>3</v>
+      </c>
+      <c r="F42" s="33">
         <v>2</v>
-      </c>
-      <c r="F42" s="33">
-        <v>1</v>
       </c>
       <c r="G42" s="33">
         <v>0</v>
       </c>
       <c r="H42" s="33">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I42" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J42" s="33">
-        <f t="shared" si="8"/>
-        <v>5000</v>
+        <f t="shared" si="9"/>
+        <v>6000</v>
       </c>
       <c r="K42" s="33">
-        <f t="shared" si="9"/>
-        <v>10000</v>
+        <f t="shared" si="10"/>
+        <v>9000</v>
       </c>
       <c r="L42" s="33">
-        <f t="shared" si="10"/>
-        <v>5000</v>
+        <f t="shared" si="11"/>
+        <v>6000</v>
       </c>
       <c r="M42" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N42" s="33">
         <f>SUM(I42:M42)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
-        <v>50</v>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="104" t="s">
+        <v>46</v>
       </c>
       <c r="C43" s="33">
         <v>0</v>
       </c>
       <c r="D43" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="33">
         <v>0</v>
@@ -2527,45 +2533,45 @@
       </c>
       <c r="H43" s="33">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I43" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J43" s="33">
-        <f t="shared" si="8"/>
-        <v>5000</v>
+        <f t="shared" si="9"/>
+        <v>6000</v>
       </c>
       <c r="K43" s="33">
-        <f t="shared" si="9"/>
-        <v>15000</v>
+        <f t="shared" si="10"/>
+        <v>12000</v>
       </c>
       <c r="L43" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M43" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N43" s="33">
-        <f t="shared" si="12"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
-        <v>43</v>
+        <f t="shared" si="13"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="104" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" s="33">
         <v>1</v>
       </c>
       <c r="E44" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="33">
         <v>1</v>
@@ -2575,39 +2581,39 @@
       </c>
       <c r="H44" s="33">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" s="33">
-        <f t="shared" si="7"/>
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J44" s="33">
-        <f t="shared" si="8"/>
-        <v>5000</v>
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
       <c r="K44" s="33">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>12000</v>
       </c>
       <c r="L44" s="33">
-        <f t="shared" si="10"/>
-        <v>5000</v>
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
       <c r="M44" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N44" s="33">
         <f>SUM(I44:M44)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
-        <v>43</v>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="104" t="s">
+        <v>51</v>
       </c>
       <c r="C45" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" s="33">
         <v>1</v>
@@ -2623,34 +2629,34 @@
       </c>
       <c r="H45" s="33">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I45" s="33">
-        <f t="shared" ref="I45" si="13">5000*C45</f>
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>12000</v>
       </c>
       <c r="J45" s="33">
-        <f t="shared" ref="J45" si="14">5000*D45</f>
-        <v>5000</v>
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
       <c r="K45" s="33">
-        <f t="shared" ref="K45" si="15">5000*E45</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L45" s="33">
-        <f t="shared" ref="L45" si="16">5000*F45</f>
-        <v>5000</v>
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
       <c r="M45" s="33">
-        <f t="shared" ref="M45" si="17">5000*G45</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N45" s="33">
         <f>SUM(I45:M45)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -2665,60 +2671,60 @@
       <c r="M46" s="33"/>
       <c r="N46" s="33"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="48">
         <f>SUM(C38:C46)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="48">
-        <f t="shared" ref="D47:G47" si="18">SUM(D38:D46)</f>
-        <v>11</v>
+        <f t="shared" ref="D47:G47" si="14">SUM(D38:D46)</f>
+        <v>16</v>
       </c>
       <c r="E47" s="48">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="F47" s="48">
         <f>SUM(F38:F46)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H47" s="33">
         <f>SUM(C47:G47)</f>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I47" s="48">
         <f>SUM(I38:I46)</f>
-        <v>45000</v>
+        <v>43000</v>
       </c>
       <c r="J47" s="48">
-        <f t="shared" ref="J47:N47" si="19">SUM(J38:J46)</f>
-        <v>55000</v>
+        <f t="shared" ref="J47:N47" si="15">SUM(J38:J46)</f>
+        <v>50000</v>
       </c>
       <c r="K47" s="48">
-        <f t="shared" si="19"/>
-        <v>55000</v>
+        <f t="shared" si="15"/>
+        <v>54000</v>
       </c>
       <c r="L47" s="48">
         <f>SUM(L38:L46)</f>
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="M47" s="48">
-        <f t="shared" si="19"/>
-        <v>10000</v>
+        <f t="shared" si="15"/>
+        <v>8000</v>
       </c>
       <c r="N47" s="33">
-        <f t="shared" si="19"/>
-        <v>215000</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2728,7 +2734,7 @@
       <c r="M53" s="49"/>
       <c r="N53" s="49"/>
     </row>
-    <row r="54" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2736,9 +2742,9 @@
       <c r="J54" s="2"/>
       <c r="L54" s="49"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="102"/>
-    </row>
-    <row r="55" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N54" s="57"/>
+    </row>
+    <row r="55" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C55" s="40"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
@@ -2749,9 +2755,9 @@
       <c r="J55" s="42"/>
       <c r="L55" s="49"/>
       <c r="M55" s="52"/>
-      <c r="N55" s="102"/>
-    </row>
-    <row r="56" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N55" s="57"/>
+    </row>
+    <row r="56" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C56" s="40"/>
       <c r="D56" s="41"/>
       <c r="E56" s="39"/>
@@ -2759,7 +2765,7 @@
       <c r="M56" s="52"/>
       <c r="N56" s="50"/>
     </row>
-    <row r="57" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C57" s="40"/>
       <c r="D57" s="41"/>
       <c r="E57" s="39"/>
@@ -2767,23 +2773,23 @@
       <c r="M57" s="52"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C58" s="40"/>
       <c r="D58" s="41"/>
       <c r="E58" s="38"/>
-      <c r="L58" s="103"/>
+      <c r="L58" s="58"/>
       <c r="M58" s="52"/>
-      <c r="N58" s="102"/>
-    </row>
-    <row r="59" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N58" s="57"/>
+    </row>
+    <row r="59" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C59" s="40"/>
       <c r="D59" s="41"/>
       <c r="E59" s="38"/>
-      <c r="L59" s="103"/>
+      <c r="L59" s="58"/>
       <c r="M59" s="52"/>
-      <c r="N59" s="102"/>
-    </row>
-    <row r="60" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N59" s="57"/>
+    </row>
+    <row r="60" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C60" s="40"/>
       <c r="D60" s="41"/>
       <c r="E60" s="39"/>
@@ -2791,12 +2797,12 @@
       <c r="M60" s="52"/>
       <c r="N60" s="50"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L61" s="49"/>
       <c r="M61" s="52"/>
       <c r="N61" s="50"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
@@ -2806,39 +2812,28 @@
       <c r="M62" s="52"/>
       <c r="N62" s="50"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L63" s="49"/>
       <c r="M63" s="52"/>
       <c r="N63" s="50"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L64" s="49"/>
       <c r="M64" s="52"/>
       <c r="N64" s="50"/>
     </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L65" s="49"/>
       <c r="M65" s="53"/>
       <c r="N65" s="51"/>
     </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L66" s="49"/>
       <c r="M66" s="52"/>
       <c r="N66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="N1:R1"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="C15:C16"/>
@@ -2854,6 +2849,17 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C19"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="N58:N59"/>
   </mergeCells>
   <conditionalFormatting sqref="C55:D60">
     <cfRule type="containsBlanks" dxfId="1" priority="3">

--- a/2025/Conferences/ULTRASONICS2025/Project/NewDocs/SMART budget table_TSNUK.xlsx
+++ b/2025/Conferences/ULTRASONICS2025/Project/NewDocs/SMART budget table_TSNUK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samples\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75B605E1-6869-476A-B07A-065CB5FBA52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{816C10F7-0937-4D4B-8CC1-F79E71D1CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDGET TABLE" sheetId="1" r:id="rId1"/>
@@ -1077,149 +1077,149 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1646,57 +1646,57 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="2:25" ht="24.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1727,10 +1727,10 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="2:25" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+    <row r="3" spans="2:25" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1760,11 +1760,11 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="32"/>
     </row>
-    <row r="4" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+    <row r="4" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1772,63 +1772,63 @@
       </c>
       <c r="E4" s="25">
         <f>C47</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="25">
         <f>D47</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="25">
         <f t="shared" ref="G4:I4" si="0">E47</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H4" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J9" si="1">SUM(E4:I4)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="87"/>
-      <c r="C5" s="81"/>
+    <row r="5" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="55">
         <f>I47</f>
-        <v>43000</v>
+        <v>59000</v>
       </c>
       <c r="F5" s="55">
         <f t="shared" ref="F5:I5" si="2">J47</f>
-        <v>50000</v>
+        <v>59000</v>
       </c>
       <c r="G5" s="55">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>22000</v>
       </c>
       <c r="H5" s="55">
         <f t="shared" si="2"/>
-        <v>47000</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="55">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>202000</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="87"/>
-      <c r="C6" s="83" t="s">
+    <row r="6" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="72"/>
+      <c r="C6" s="68" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -1844,9 +1844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="87"/>
-      <c r="C7" s="81"/>
+    <row r="7" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="72"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
@@ -1860,9 +1860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="83" t="s">
+    <row r="8" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="72"/>
+      <c r="C8" s="68" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -1878,9 +1878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="88"/>
-      <c r="C9" s="81"/>
+    <row r="9" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
@@ -1894,11 +1894,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89" t="s">
+    <row r="10" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
@@ -1907,14 +1907,14 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="95">
+      <c r="J10" s="80">
         <f>SUM(E10:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+    <row r="11" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="24" t="s">
         <v>12</v>
       </c>
@@ -1923,11 +1923,11 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="95"/>
-    </row>
-    <row r="12" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
+      <c r="J11" s="80"/>
+    </row>
+    <row r="12" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
@@ -1936,13 +1936,13 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="82"/>
-    </row>
-    <row r="13" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="98" t="s">
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1961,7 +1961,7 @@
       <c r="I13" s="15">
         <v>15000</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="60">
         <f>SUM(E13:I14)</f>
         <v>100000</v>
       </c>
@@ -1978,9 +1978,9 @@
       <c r="X13" s="34"/>
       <c r="Y13" s="33"/>
     </row>
-    <row r="14" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99"/>
-      <c r="C14" s="79"/>
+    <row r="14" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="84"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1993,11 +1993,11 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="77"/>
-    </row>
-    <row r="15" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="78" t="s">
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="84"/>
+      <c r="C15" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2008,14 +2008,14 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="70">
+      <c r="J15" s="66">
         <f>SUM(E15:I16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99"/>
-      <c r="C16" s="79"/>
+    <row r="16" spans="2:25" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="84"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="21" t="s">
         <v>12</v>
       </c>
@@ -2024,11 +2024,11 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="82"/>
-    </row>
-    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="101" t="s">
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="84"/>
+      <c r="C17" s="86" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="70">
+      <c r="J17" s="66">
         <f>SUM(E17:I19)</f>
         <v>98000</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="102"/>
+    <row r="18" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="84"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2065,11 +2065,11 @@
         <v>8000</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="2:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="100"/>
-      <c r="C19" s="103"/>
+      <c r="J18" s="100"/>
+    </row>
+    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="85"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="13" t="s">
         <v>12</v>
       </c>
@@ -2078,13 +2078,13 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="72"/>
-    </row>
-    <row r="20" spans="2:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="96" t="s">
+      <c r="J19" s="101"/>
+    </row>
+    <row r="20" spans="2:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="23" t="s">
         <v>12</v>
       </c>
@@ -2098,105 +2098,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="84" t="s">
+    <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="85"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="30">
         <f>SUM(25%*(E5+E7+E9+E13+E14+E15+E16+E17+E18+E19))</f>
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="F21" s="30">
         <f>SUM(25%*(F5+F7+F9+F13+F14+F15+F16+F17+F18+F19))</f>
-        <v>23250</v>
+        <v>25500</v>
       </c>
       <c r="G21" s="30">
         <f t="shared" ref="G21:I21" si="3">SUM(25%*(G5+G7+G9+G13+G14+G15+G16+G17+G18+G19))</f>
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="3"/>
-        <v>17500</v>
+        <v>18250</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="3"/>
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="J21" s="18">
         <f>SUM(E21:I21)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="73" t="s">
+    <row r="22" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="31">
         <f>SUM(E5,E7,E9,E10:E21)</f>
-        <v>127500</v>
+        <v>147500</v>
       </c>
       <c r="F22" s="31">
         <f>SUM(F5,F7,F9,F10:F21)</f>
-        <v>116250</v>
+        <v>127500</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" ref="G22:I22" si="4">SUM(G5,G7,G9,G10:G21)</f>
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="H22" s="31">
         <f t="shared" si="4"/>
-        <v>87500</v>
+        <v>91250</v>
       </c>
       <c r="I22" s="31">
         <f t="shared" si="4"/>
-        <v>28750</v>
+        <v>33750</v>
       </c>
       <c r="J22" s="19">
         <f>SUM(E22:I22)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="35"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K28" s="37"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J31" s="36"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
       <c r="N35" s="33"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="44" t="s">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33"/>
       <c r="C37" s="46" t="s">
         <v>26</v>
@@ -2272,24 +2272,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="33">
         <v>2</v>
       </c>
       <c r="E38" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="33">
         <v>2</v>
       </c>
       <c r="G38" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="33">
         <f>SUM(C38:G38)</f>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="I38" s="33">
         <f>4000*C38</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="J38" s="33">
         <f t="shared" ref="J38:M38" si="5">4000*D38</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="K38" s="33">
         <f t="shared" si="5"/>
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L38" s="33">
         <f t="shared" si="5"/>
@@ -2313,25 +2313,25 @@
       </c>
       <c r="M38" s="33">
         <f t="shared" si="5"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N38" s="33">
         <f>SUM(I38:M38)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="33">
+        <v>2</v>
+      </c>
+      <c r="D39" s="33">
+        <v>4</v>
+      </c>
+      <c r="E39" s="33">
         <v>1</v>
-      </c>
-      <c r="D39" s="33">
-        <v>3</v>
-      </c>
-      <c r="E39" s="33">
-        <v>3</v>
       </c>
       <c r="F39" s="33">
         <v>4</v>
@@ -2345,15 +2345,15 @@
       </c>
       <c r="I39" s="33">
         <f>3000*C39</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="J39" s="33">
         <f t="shared" ref="J39:M39" si="7">3000*D39</f>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="K39" s="33">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L39" s="33">
         <f t="shared" si="7"/>
@@ -2368,7 +2368,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
         <v>50</v>
       </c>
@@ -2464,21 +2464,21 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="104" t="s">
+    <row r="42" spans="2:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="33">
         <v>2</v>
       </c>
       <c r="E42" s="33">
+        <v>1</v>
+      </c>
+      <c r="F42" s="33">
         <v>3</v>
-      </c>
-      <c r="F42" s="33">
-        <v>2</v>
       </c>
       <c r="G42" s="33">
         <v>0</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="I42" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J42" s="33">
         <f t="shared" si="9"/>
@@ -2497,11 +2497,11 @@
       </c>
       <c r="K42" s="33">
         <f t="shared" si="10"/>
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L42" s="33">
         <f t="shared" si="11"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M42" s="33">
         <f t="shared" si="12"/>
@@ -2512,18 +2512,18 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="104" t="s">
+    <row r="43" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="56" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="33">
+        <v>3</v>
+      </c>
+      <c r="E43" s="33">
         <v>2</v>
-      </c>
-      <c r="E43" s="33">
-        <v>4</v>
       </c>
       <c r="F43" s="33">
         <v>0</v>
@@ -2537,15 +2537,15 @@
       </c>
       <c r="I43" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J43" s="33">
         <f t="shared" si="9"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="K43" s="33">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L43" s="33">
         <f t="shared" si="11"/>
@@ -2560,18 +2560,18 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="104" t="s">
+    <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="56" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="33">
         <v>1</v>
@@ -2585,15 +2585,15 @@
       </c>
       <c r="I44" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J44" s="33">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="K44" s="33">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L44" s="33">
         <f t="shared" si="11"/>
@@ -2608,8 +2608,8 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="104" t="s">
+    <row r="45" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="33">
@@ -2656,7 +2656,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -2671,29 +2671,29 @@
       <c r="M46" s="33"/>
       <c r="N46" s="33"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="48">
         <f>SUM(C38:C46)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D47" s="48">
         <f t="shared" ref="D47:G47" si="14">SUM(D38:D46)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E47" s="48">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F47" s="48">
         <f>SUM(F38:F46)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="48">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="33">
         <f>SUM(C47:G47)</f>
@@ -2701,30 +2701,30 @@
       </c>
       <c r="I47" s="48">
         <f>SUM(I38:I46)</f>
-        <v>43000</v>
+        <v>59000</v>
       </c>
       <c r="J47" s="48">
         <f t="shared" ref="J47:N47" si="15">SUM(J38:J46)</f>
-        <v>50000</v>
+        <v>59000</v>
       </c>
       <c r="K47" s="48">
         <f t="shared" si="15"/>
-        <v>54000</v>
+        <v>22000</v>
       </c>
       <c r="L47" s="48">
         <f>SUM(L38:L46)</f>
-        <v>47000</v>
+        <v>50000</v>
       </c>
       <c r="M47" s="48">
         <f t="shared" si="15"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N47" s="33">
         <f t="shared" si="15"/>
         <v>202000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2734,7 +2734,7 @@
       <c r="M53" s="49"/>
       <c r="N53" s="49"/>
     </row>
-    <row r="54" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2742,9 +2742,9 @@
       <c r="J54" s="2"/>
       <c r="L54" s="49"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="57"/>
-    </row>
-    <row r="55" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N54" s="103"/>
+    </row>
+    <row r="55" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="40"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
@@ -2755,9 +2755,9 @@
       <c r="J55" s="42"/>
       <c r="L55" s="49"/>
       <c r="M55" s="52"/>
-      <c r="N55" s="57"/>
-    </row>
-    <row r="56" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N55" s="103"/>
+    </row>
+    <row r="56" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" s="40"/>
       <c r="D56" s="41"/>
       <c r="E56" s="39"/>
@@ -2765,7 +2765,7 @@
       <c r="M56" s="52"/>
       <c r="N56" s="50"/>
     </row>
-    <row r="57" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="40"/>
       <c r="D57" s="41"/>
       <c r="E57" s="39"/>
@@ -2773,23 +2773,23 @@
       <c r="M57" s="52"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="40"/>
       <c r="D58" s="41"/>
       <c r="E58" s="38"/>
-      <c r="L58" s="58"/>
+      <c r="L58" s="104"/>
       <c r="M58" s="52"/>
-      <c r="N58" s="57"/>
-    </row>
-    <row r="59" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N58" s="103"/>
+    </row>
+    <row r="59" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="40"/>
       <c r="D59" s="41"/>
       <c r="E59" s="38"/>
-      <c r="L59" s="58"/>
+      <c r="L59" s="104"/>
       <c r="M59" s="52"/>
-      <c r="N59" s="57"/>
-    </row>
-    <row r="60" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N59" s="103"/>
+    </row>
+    <row r="60" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="40"/>
       <c r="D60" s="41"/>
       <c r="E60" s="39"/>
@@ -2797,12 +2797,12 @@
       <c r="M60" s="52"/>
       <c r="N60" s="50"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L61" s="49"/>
       <c r="M61" s="52"/>
       <c r="N61" s="50"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
@@ -2812,28 +2812,39 @@
       <c r="M62" s="52"/>
       <c r="N62" s="50"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L63" s="49"/>
       <c r="M63" s="52"/>
       <c r="N63" s="50"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L64" s="49"/>
       <c r="M64" s="52"/>
       <c r="N64" s="50"/>
     </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L65" s="49"/>
       <c r="M65" s="53"/>
       <c r="N65" s="51"/>
     </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L66" s="49"/>
       <c r="M66" s="52"/>
       <c r="N66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="C15:C16"/>
@@ -2849,17 +2860,6 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="N58:N59"/>
   </mergeCells>
   <conditionalFormatting sqref="C55:D60">
     <cfRule type="containsBlanks" dxfId="1" priority="3">
